--- a/Monitoring Solutions/Availability Groups Monitoring/AG Monitoring Design.xlsx
+++ b/Monitoring Solutions/Availability Groups Monitoring/AG Monitoring Design.xlsx
@@ -1074,8 +1074,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A0B9F8B3991C594AB7A558D53E9A462C" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b5b74ab120b1fdf31e22a21f1040e190">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1c853891-79e1-4665-8425-27cfb243d1fd" xmlns:ns3="c8f11c67-c3b6-4b83-8087-70e71e9ec41f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c4d40e80402f8f705d5ee52695fee8b1" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A0B9F8B3991C594AB7A558D53E9A462C" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9ad76792cbb562e3508edc3197278081">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1c853891-79e1-4665-8425-27cfb243d1fd" xmlns:ns3="c8f11c67-c3b6-4b83-8087-70e71e9ec41f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ebd3767b36f80078c7870998be16d555" ns2:_="" ns3:_="">
     <xsd:import namespace="1c853891-79e1-4665-8425-27cfb243d1fd"/>
     <xsd:import namespace="c8f11c67-c3b6-4b83-8087-70e71e9ec41f"/>
     <xsd:element name="properties">
@@ -1100,6 +1100,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1179,6 +1180,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1343,7 +1349,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FEF2202-4DFF-4F46-82E7-152A5B9FCBD2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E30B9D0-EEFC-4CD7-B01D-E1D955A856F6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
